--- a/src/main/webapp/excel/模板.xlsx
+++ b/src/main/webapp/excel/模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>需求计划示例</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>采购方式</t>
-  </si>
-  <si>
-    <t>采购机构</t>
   </si>
   <si>
     <t>备注</t>
@@ -125,9 +122,6 @@
     <t>公开招标</t>
   </si>
   <si>
-    <t>北京站</t>
-  </si>
-  <si>
     <t>约需印刷10份文档。彩页数量由文档实际情况决定（个别文档含彩页）。每份文档的印刷流程为：排版、出样书、校对、修改排版文件、出样书、校对、批量印刷。每份文档首次印刷1100本，后可根据需求加印。预算金额50万为年度印刷图书总价，成品总数约为11000本。按实际印刷量支付。需要印厂具有国家保密资质（乙级及以上）或联合国保密资质（C级及以上）。</t>
   </si>
   <si>
@@ -182,13 +176,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -232,7 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,8 +239,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,57 +354,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -326,54 +368,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -390,13 +384,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,169 +516,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,17 +635,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,57 +704,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,10 +731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,133 +743,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1296,18 +1290,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:14">
+    <row r="1" ht="27" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,9 +1317,8 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:14">
+    <row r="2" ht="47" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1362,23 +1355,20 @@
       <c r="L2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+    </row>
+    <row r="3" ht="40" customHeight="1" spans="1:13">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" ht="40" customHeight="1" spans="1:14">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4"/>
@@ -1392,17 +1382,16 @@
       <c r="K3" s="7"/>
       <c r="L3" s="4"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
     </row>
-    <row r="4" ht="60" customHeight="1" spans="1:14">
+    <row r="4" ht="60" customHeight="1" spans="1:13">
       <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
@@ -1415,27 +1404,26 @@
       <c r="J4" s="11"/>
       <c r="K4" s="12"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="12" t="s">
+      <c r="M4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="66" customHeight="1" spans="1:13">
+      <c r="A5" s="11" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="66" customHeight="1" spans="1:14">
-      <c r="A5" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="15">
         <v>10</v>
@@ -1447,35 +1435,32 @@
         <v>50</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="14" t="s">
+    </row>
+    <row r="6" ht="33.75" spans="1:13">
+      <c r="A6" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="N5" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" ht="33.75" spans="1:14">
-      <c r="A6" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="15">
         <v>2</v>
@@ -1487,33 +1472,30 @@
         <v>10</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="M6" s="8"/>
     </row>
-    <row r="7" ht="34" customHeight="1" spans="1:14">
+    <row r="7" ht="34" customHeight="1" spans="1:13">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" s="15">
         <v>3</v>
@@ -1525,26 +1507,23 @@
         <v>15</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="M7" s="8"/>
     </row>
-    <row r="8" ht="63" customHeight="1" spans="1:14">
+    <row r="8" ht="63" customHeight="1" spans="1:13">
       <c r="A8" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="18"/>
@@ -1558,23 +1537,22 @@
       <c r="J8" s="11"/>
       <c r="K8" s="12"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="8"/>
+      <c r="M8" s="8"/>
     </row>
-    <row r="9" ht="70" customHeight="1" spans="1:14">
+    <row r="9" ht="70" customHeight="1" spans="1:13">
       <c r="A9" s="14">
         <v>1</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="15">
         <v>2</v>
@@ -1586,31 +1564,28 @@
         <v>34</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="M9" s="8"/>
     </row>
-    <row r="10" ht="42" customHeight="1" spans="1:14">
+    <row r="10" ht="42" customHeight="1" spans="1:13">
       <c r="A10" s="14">
         <v>2</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="15">
         <v>3</v>
@@ -1622,20 +1597,17 @@
         <v>45</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="M10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
